--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H2">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I2">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J2">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N2">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P2">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q2">
-        <v>78.92006050052073</v>
+        <v>183.2740036644615</v>
       </c>
       <c r="R2">
-        <v>78.92006050052073</v>
+        <v>1649.466032980153</v>
       </c>
       <c r="S2">
-        <v>0.0002081947751671799</v>
+        <v>0.0004429191871516195</v>
       </c>
       <c r="T2">
-        <v>0.0002081947751671799</v>
+        <v>0.0004429191871516196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H3">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I3">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J3">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N3">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P3">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q3">
-        <v>129.289458015877</v>
+        <v>201.3664133786169</v>
       </c>
       <c r="R3">
-        <v>129.289458015877</v>
+        <v>1812.297720407552</v>
       </c>
       <c r="S3">
-        <v>0.0003410715789165474</v>
+        <v>0.0004866432028002266</v>
       </c>
       <c r="T3">
-        <v>0.0003410715789165474</v>
+        <v>0.0004866432028002268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H4">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I4">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J4">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N4">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P4">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q4">
-        <v>1133.09375768232</v>
+        <v>1959.481756908804</v>
       </c>
       <c r="R4">
-        <v>1133.09375768232</v>
+        <v>17635.33581217924</v>
       </c>
       <c r="S4">
-        <v>0.002989153817519553</v>
+        <v>0.004735489210992596</v>
       </c>
       <c r="T4">
-        <v>0.002989153817519553</v>
+        <v>0.004735489210992597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H5">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I5">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J5">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N5">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P5">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q5">
-        <v>1315.357217948765</v>
+        <v>2053.976360345897</v>
       </c>
       <c r="R5">
-        <v>1315.357217948765</v>
+        <v>18485.78724311308</v>
       </c>
       <c r="S5">
-        <v>0.003469973268121905</v>
+        <v>0.004963854784438557</v>
       </c>
       <c r="T5">
-        <v>0.003469973268121905</v>
+        <v>0.004963854784438559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H6">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I6">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J6">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N6">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P6">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q6">
-        <v>2592.848648931047</v>
+        <v>4092.500956085242</v>
       </c>
       <c r="R6">
-        <v>2592.848648931047</v>
+        <v>36832.50860476718</v>
       </c>
       <c r="S6">
-        <v>0.006840054836287964</v>
+        <v>0.009890367213263373</v>
       </c>
       <c r="T6">
-        <v>0.006840054836287964</v>
+        <v>0.009890367213263375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H7">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I7">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J7">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N7">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P7">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q7">
-        <v>17.12817557089719</v>
+        <v>30.34782802172833</v>
       </c>
       <c r="R7">
-        <v>17.12817557089719</v>
+        <v>273.130452195555</v>
       </c>
       <c r="S7">
-        <v>4.518492053086294E-05</v>
+        <v>7.334174542184408E-05</v>
       </c>
       <c r="T7">
-        <v>4.518492053086294E-05</v>
+        <v>7.33417454218441E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H8">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I8">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J8">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N8">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O8">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P8">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q8">
-        <v>181.4109069798646</v>
+        <v>271.4201317486843</v>
       </c>
       <c r="R8">
-        <v>181.4109069798646</v>
+        <v>2442.781185738158</v>
       </c>
       <c r="S8">
-        <v>0.0004785703755421967</v>
+        <v>0.0006559423689505176</v>
       </c>
       <c r="T8">
-        <v>0.0004785703755421967</v>
+        <v>0.0006559423689505178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H9">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I9">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J9">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N9">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P9">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q9">
-        <v>297.1933586067208</v>
+        <v>298.2141348810525</v>
       </c>
       <c r="R9">
-        <v>297.1933586067208</v>
+        <v>2683.927213929473</v>
       </c>
       <c r="S9">
-        <v>0.0007840098459617507</v>
+        <v>0.0007206955682621542</v>
       </c>
       <c r="T9">
-        <v>0.0007840098459617507</v>
+        <v>0.0007206955682621544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H10">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I10">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J10">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N10">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O10">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P10">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q10">
-        <v>2604.604773117429</v>
+        <v>2901.899811132135</v>
       </c>
       <c r="R10">
-        <v>2604.604773117429</v>
+        <v>26117.09830018921</v>
       </c>
       <c r="S10">
-        <v>0.006871068036433762</v>
+        <v>0.007013035563380974</v>
       </c>
       <c r="T10">
-        <v>0.006871068036433762</v>
+        <v>0.007013035563380975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H11">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I11">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J11">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N11">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O11">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P11">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q11">
-        <v>3023.567701256671</v>
+        <v>3041.841849837152</v>
       </c>
       <c r="R11">
-        <v>3023.567701256671</v>
+        <v>27376.57664853437</v>
       </c>
       <c r="S11">
-        <v>0.007976311647172725</v>
+        <v>0.007351234177435617</v>
       </c>
       <c r="T11">
-        <v>0.007976311647172725</v>
+        <v>0.00735123417743562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H12">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I12">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J12">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N12">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O12">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P12">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q12">
-        <v>5960.094582808816</v>
+        <v>6060.800367060812</v>
       </c>
       <c r="R12">
-        <v>5960.094582808816</v>
+        <v>54547.20330354731</v>
       </c>
       <c r="S12">
-        <v>0.01572300558024561</v>
+        <v>0.01464716609225987</v>
       </c>
       <c r="T12">
-        <v>0.01572300558024561</v>
+        <v>0.01464716609225988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H13">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I13">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J13">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N13">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O13">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P13">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q13">
-        <v>39.37196506845451</v>
+        <v>44.94369804363667</v>
       </c>
       <c r="R13">
-        <v>39.37196506845451</v>
+        <v>404.49328239273</v>
       </c>
       <c r="S13">
-        <v>0.0001038650675548185</v>
+        <v>0.000108615656378196</v>
       </c>
       <c r="T13">
-        <v>0.0001038650675548185</v>
+        <v>0.000108615656378196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H14">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I14">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J14">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N14">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O14">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P14">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q14">
-        <v>2341.890195678057</v>
+        <v>3786.921669667279</v>
       </c>
       <c r="R14">
-        <v>2341.890195678057</v>
+        <v>34082.29502700551</v>
       </c>
       <c r="S14">
-        <v>0.006178014812244082</v>
+        <v>0.009151872247013769</v>
       </c>
       <c r="T14">
-        <v>0.006178014812244082</v>
+        <v>0.009151872247013772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H15">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I15">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J15">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N15">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P15">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q15">
-        <v>3836.562113759584</v>
+        <v>4160.758313343546</v>
       </c>
       <c r="R15">
-        <v>3836.562113759584</v>
+        <v>37446.8248200919</v>
       </c>
       <c r="S15">
-        <v>0.0101210285651495</v>
+        <v>0.01005532510466905</v>
       </c>
       <c r="T15">
-        <v>0.0101210285651495</v>
+        <v>0.01005532510466905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H16">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I16">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J16">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N16">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O16">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P16">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q16">
-        <v>33623.65848519243</v>
+        <v>40488.03309901473</v>
       </c>
       <c r="R16">
-        <v>33623.65848519243</v>
+        <v>364392.2978911325</v>
       </c>
       <c r="S16">
-        <v>0.0887007685273694</v>
+        <v>0.09784762896550847</v>
       </c>
       <c r="T16">
-        <v>0.0887007685273694</v>
+        <v>0.0978476289655085</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H17">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I17">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J17">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N17">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O17">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P17">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q17">
-        <v>39032.18209656914</v>
+        <v>42440.53947890309</v>
       </c>
       <c r="R17">
-        <v>39032.18209656914</v>
+        <v>381964.8553101278</v>
       </c>
       <c r="S17">
-        <v>0.1029687043362824</v>
+        <v>0.1025662607485069</v>
       </c>
       <c r="T17">
-        <v>0.1029687043362824</v>
+        <v>0.102566260748507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H18">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I18">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J18">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N18">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O18">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P18">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q18">
-        <v>76940.72700018586</v>
+        <v>84561.80496884328</v>
       </c>
       <c r="R18">
-        <v>76940.72700018586</v>
+        <v>761056.2447195895</v>
       </c>
       <c r="S18">
-        <v>0.2029732017108295</v>
+        <v>0.2043609304756872</v>
       </c>
       <c r="T18">
-        <v>0.2029732017108295</v>
+        <v>0.2043609304756872</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H19">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I19">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J19">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N19">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O19">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P19">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q19">
-        <v>508.2650239361116</v>
+        <v>627.0657336281233</v>
       </c>
       <c r="R19">
-        <v>508.2650239361116</v>
+        <v>5643.591602653109</v>
       </c>
       <c r="S19">
-        <v>0.001340826675912417</v>
+        <v>0.001515432846317301</v>
       </c>
       <c r="T19">
-        <v>0.001340826675912417</v>
+        <v>0.001515432846317301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H20">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I20">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J20">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N20">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O20">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P20">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q20">
-        <v>2180.645876496735</v>
+        <v>3268.546217386504</v>
       </c>
       <c r="R20">
-        <v>2180.645876496735</v>
+        <v>29416.91595647853</v>
       </c>
       <c r="S20">
-        <v>0.00575264482942813</v>
+        <v>0.007899111738851885</v>
       </c>
       <c r="T20">
-        <v>0.00575264482942813</v>
+        <v>0.007899111738851886</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H21">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I21">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J21">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N21">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O21">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P21">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q21">
-        <v>3572.40632747563</v>
+        <v>3591.209967575951</v>
       </c>
       <c r="R21">
-        <v>3572.40632747563</v>
+        <v>32320.88970818356</v>
       </c>
       <c r="S21">
-        <v>0.009424173365271208</v>
+        <v>0.008678894812827015</v>
       </c>
       <c r="T21">
-        <v>0.009424173365271208</v>
+        <v>0.008678894812827017</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H22">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I22">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J22">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N22">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O22">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P22">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q22">
-        <v>31308.59523806166</v>
+        <v>34945.80003996527</v>
       </c>
       <c r="R22">
-        <v>31308.59523806166</v>
+        <v>314512.2003596874</v>
       </c>
       <c r="S22">
-        <v>0.08259352444801381</v>
+        <v>0.08445368704009934</v>
       </c>
       <c r="T22">
-        <v>0.08259352444801381</v>
+        <v>0.08445368704009935</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H23">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I23">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J23">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N23">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O23">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P23">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q23">
-        <v>36344.73003757094</v>
+        <v>36631.03620249932</v>
       </c>
       <c r="R23">
-        <v>36344.73003757094</v>
+        <v>329679.3258224939</v>
       </c>
       <c r="S23">
-        <v>0.09587908132221978</v>
+        <v>0.08852640557269957</v>
       </c>
       <c r="T23">
-        <v>0.09587908132221978</v>
+        <v>0.08852640557269961</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H24">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I24">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J24">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N24">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O24">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P24">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q24">
-        <v>71643.18778790484</v>
+        <v>72986.502461925</v>
       </c>
       <c r="R24">
-        <v>71643.18778790484</v>
+        <v>656878.5221573249</v>
       </c>
       <c r="S24">
-        <v>0.1889980478875138</v>
+        <v>0.1763868399069847</v>
       </c>
       <c r="T24">
-        <v>0.1889980478875138</v>
+        <v>0.1763868399069848</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H25">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I25">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J25">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N25">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O25">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P25">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q25">
-        <v>473.2698529842438</v>
+        <v>541.2293969848533</v>
       </c>
       <c r="R25">
-        <v>473.2698529842438</v>
+        <v>4871.06457286368</v>
       </c>
       <c r="S25">
-        <v>0.001248507793969682</v>
+        <v>0.001307991748867854</v>
       </c>
       <c r="T25">
-        <v>0.001248507793969682</v>
+        <v>0.001307991748867854</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H26">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I26">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J26">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N26">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O26">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P26">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q26">
-        <v>830.643325461864</v>
+        <v>1279.267845287135</v>
       </c>
       <c r="R26">
-        <v>830.643325461864</v>
+        <v>11513.41060758421</v>
       </c>
       <c r="S26">
-        <v>0.002191275567857812</v>
+        <v>0.003091612901200853</v>
       </c>
       <c r="T26">
-        <v>0.002191275567857812</v>
+        <v>0.003091612901200854</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H27">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I27">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J27">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N27">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O27">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P27">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q27">
-        <v>1360.787417956446</v>
+        <v>1405.554375445846</v>
       </c>
       <c r="R27">
-        <v>1360.787417956446</v>
+        <v>12649.98937901261</v>
       </c>
       <c r="S27">
-        <v>0.003589820240063047</v>
+        <v>0.003396810180507852</v>
       </c>
       <c r="T27">
-        <v>0.003589820240063047</v>
+        <v>0.003396810180507853</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H28">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I28">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J28">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N28">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O28">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P28">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q28">
-        <v>11925.95090490474</v>
+        <v>13677.346240711</v>
       </c>
       <c r="R28">
-        <v>11925.95090490474</v>
+        <v>123096.1161663989</v>
       </c>
       <c r="S28">
-        <v>0.0314612108956136</v>
+        <v>0.03305411001124797</v>
       </c>
       <c r="T28">
-        <v>0.0314612108956136</v>
+        <v>0.03305411001124797</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H29">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I29">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J29">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N29">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O29">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P29">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q29">
-        <v>13844.29619995057</v>
+        <v>14336.92646110901</v>
       </c>
       <c r="R29">
-        <v>13844.29619995057</v>
+        <v>129032.3381499811</v>
       </c>
       <c r="S29">
-        <v>0.03652189464144586</v>
+        <v>0.03464812077785308</v>
       </c>
       <c r="T29">
-        <v>0.03652189464144586</v>
+        <v>0.03464812077785309</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H30">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I30">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J30">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N30">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O30">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P30">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q30">
-        <v>27290.0503434507</v>
+        <v>28565.99831535137</v>
       </c>
       <c r="R30">
-        <v>27290.0503434507</v>
+        <v>257093.9848381623</v>
       </c>
       <c r="S30">
-        <v>0.07199241687755994</v>
+        <v>0.06903558879618334</v>
       </c>
       <c r="T30">
-        <v>0.07199241687755994</v>
+        <v>0.06903558879618335</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H31">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I31">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J31">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N31">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O31">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P31">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q31">
-        <v>180.2761506399356</v>
+        <v>211.83037302758</v>
       </c>
       <c r="R31">
-        <v>180.2761506399356</v>
+        <v>1906.47335724822</v>
       </c>
       <c r="S31">
-        <v>0.0004755768357556999</v>
+        <v>0.0005119315056115259</v>
       </c>
       <c r="T31">
-        <v>0.0004755768357556999</v>
+        <v>0.0005119315056115259</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H32">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I32">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J32">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.88200607812835</v>
+        <v>8.795396333333334</v>
       </c>
       <c r="N32">
-        <v>5.88200607812835</v>
+        <v>26.386189</v>
       </c>
       <c r="O32">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="P32">
-        <v>0.01498490511603312</v>
+        <v>0.02150864179955676</v>
       </c>
       <c r="Q32">
-        <v>66.79365501152969</v>
+        <v>110.5568800319219</v>
       </c>
       <c r="R32">
-        <v>66.79365501152969</v>
+        <v>995.011920287297</v>
       </c>
       <c r="S32">
-        <v>0.0001762047557937167</v>
+        <v>0.000267183356388112</v>
       </c>
       <c r="T32">
-        <v>0.0001762047557937167</v>
+        <v>0.0002671833563881121</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H33">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I33">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J33">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>9.63609724909284</v>
+        <v>9.663658666666668</v>
       </c>
       <c r="N33">
-        <v>9.63609724909284</v>
+        <v>28.990976</v>
       </c>
       <c r="O33">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336837</v>
       </c>
       <c r="P33">
-        <v>0.02454876806459722</v>
+        <v>0.02363192798336838</v>
       </c>
       <c r="Q33">
-        <v>109.4235787526184</v>
+        <v>121.4708139792498</v>
       </c>
       <c r="R33">
-        <v>109.4235787526184</v>
+        <v>1093.237325813248</v>
       </c>
       <c r="S33">
-        <v>0.0002886644692351608</v>
+        <v>0.0002935591143020768</v>
       </c>
       <c r="T33">
-        <v>0.0002886644692351608</v>
+        <v>0.0002935591143020769</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H34">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I34">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J34">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.4508269191294</v>
+        <v>94.03635166666668</v>
       </c>
       <c r="N34">
-        <v>84.4508269191294</v>
+        <v>282.109055</v>
       </c>
       <c r="O34">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="P34">
-        <v>0.2151455832491024</v>
+        <v>0.2299605529395115</v>
       </c>
       <c r="Q34">
-        <v>958.989046211531</v>
+        <v>1182.023555942613</v>
       </c>
       <c r="R34">
-        <v>958.989046211531</v>
+        <v>10638.21200348352</v>
       </c>
       <c r="S34">
-        <v>0.002529857524152312</v>
+        <v>0.002856602148282137</v>
       </c>
       <c r="T34">
-        <v>0.002529857524152312</v>
+        <v>0.002856602148282138</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H35">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I35">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J35">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>98.03513963136891</v>
+        <v>98.57118733333334</v>
       </c>
       <c r="N35">
-        <v>98.03513963136891</v>
+        <v>295.713562</v>
       </c>
       <c r="O35">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="P35">
-        <v>0.2497527622209753</v>
+        <v>0.2410502358005932</v>
       </c>
       <c r="Q35">
-        <v>1113.246944761473</v>
+        <v>1239.025794814336</v>
       </c>
       <c r="R35">
-        <v>1113.246944761473</v>
+        <v>11151.23215332903</v>
       </c>
       <c r="S35">
-        <v>0.002936797005732598</v>
+        <v>0.002994359739659412</v>
       </c>
       <c r="T35">
-        <v>0.002936797005732598</v>
+        <v>0.002994359739659413</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H36">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I36">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J36">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>193.248097073857</v>
+        <v>196.400838</v>
       </c>
       <c r="N36">
-        <v>193.248097073857</v>
+        <v>589.202514</v>
       </c>
       <c r="O36">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="P36">
-        <v>0.4923157779917064</v>
+        <v>0.4802870858320739</v>
       </c>
       <c r="Q36">
-        <v>2194.446342988656</v>
+        <v>2468.730579274058</v>
       </c>
       <c r="R36">
-        <v>2194.446342988656</v>
+        <v>22218.57521346652</v>
       </c>
       <c r="S36">
-        <v>0.005789051099269608</v>
+        <v>0.005966193347695399</v>
       </c>
       <c r="T36">
-        <v>0.005789051099269608</v>
+        <v>0.005966193347695401</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H37">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I37">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J37">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.27658331958073</v>
+        <v>1.456405</v>
       </c>
       <c r="N37">
-        <v>1.27658331958073</v>
+        <v>4.369215</v>
       </c>
       <c r="O37">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896288</v>
       </c>
       <c r="P37">
-        <v>0.003252203357585582</v>
+        <v>0.003561555644896289</v>
       </c>
       <c r="Q37">
-        <v>14.49635799571985</v>
+        <v>18.30680355502167</v>
       </c>
       <c r="R37">
-        <v>14.49635799571985</v>
+        <v>164.761231995195</v>
       </c>
       <c r="S37">
-        <v>3.824206386210171E-05</v>
+        <v>4.424214229956757E-05</v>
       </c>
       <c r="T37">
-        <v>3.824206386210171E-05</v>
+        <v>4.424214229956758E-05</v>
       </c>
     </row>
   </sheetData>
